--- a/data/DT_FundList.xlsx
+++ b/data/DT_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4DA82427541F7ACA7EB8E2E80C16646BE8DE08" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF986AA0-8465-4EC2-86CD-EDD5180A161C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_AD4DA82427541F7ACA7EB8E2E80C16646BE8DE08" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AAC1A43E-B796-4C90-8913-5F334898F741}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1245" windowWidth="17640" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10935" yWindow="3060" windowWidth="17640" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,6 +64,46 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001643</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001718</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>166019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519714</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001473</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160517</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001166</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,10 +135,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="唐美人 常规体"/>
       <family val="5"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +180,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,19 +464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -435,45 +490,98 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>163406</v>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>163406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/data/DT_FundList.xlsx
+++ b/data/DT_FundList.xlsx
@@ -8,123 +8,153 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_AD4DA82427541F7ACA7EB8E2E80C16646BE8DE08" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AAC1A43E-B796-4C90-8913-5F334898F741}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="11_AD4DA82427541F7ACA7EB8E2E80C16646BE8DE08" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{57D3E7B9-BA02-4CEC-9E18-D2F5AA171E8D}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="3060" windowWidth="17640" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="1635" windowWidth="24405" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000594</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>002190</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>004997</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000991</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>502000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>673100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>005609</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>002001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>001643</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>001054</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>001718</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>166019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>001043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>519714</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>001473</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>001070</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>160517</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>001166</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧价值智选回报A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大摩进取优选股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇丰晋信智造先锋股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信新金融股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信物流产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发高端制造股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信前沿医疗股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信战略转型主题股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银施罗德消费新驱动股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全合润混合LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信信息产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部得利中证500指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部得利沪深300指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="唐美人 常规体"/>
-      <family val="5"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -172,18 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,125 +491,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="C11" s="1">
+        <v>163406</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>163406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
-    <sortCondition ref="A1:A20"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
